--- a/excel/Exemplo-Estoque.xlsx
+++ b/excel/Exemplo-Estoque.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2164E5-24A1-4496-92A1-834A3A737ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A35D2C-EC31-4BBD-A9DC-AC1CFD07E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +536,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="F6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Exemplo-Estoque.xlsx
+++ b/excel/Exemplo-Estoque.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A35D2C-EC31-4BBD-A9DC-AC1CFD07E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B12420-5F2D-4822-99E4-105ABA630EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
         <v>155</v>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5">
         <v>160</v>
